--- a/data/BppTrend/Valid_Import_Files/BOE Valuation Factors 2022.xlsx
+++ b/data/BppTrend/Valid_Import_Files/BOE Valuation Factors 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DDeepika\APAS_Automation\qa_automation\data\BppTrend\Valid_Import_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E49B0-880B-4BB0-A4F0-3A37DD3AF043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47EE73-C08D-4690-97D8-87EDD266E1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="12" r:id="rId1"/>
@@ -22,9 +22,19 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc212252264" localSheetId="2">'Semiconductor Val Factors'!#REF!</definedName>
-    <definedName name="_Toc212252265" localSheetId="3">'Biopharmaceutical Val Factors'!$A$24</definedName>
+    <definedName name="_Toc212252265" localSheetId="3">'Biopharmaceutical Val Factors'!$A$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -670,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -753,10 +763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -778,23 +788,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="14" customFormat="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="22">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B2">
         <v>54</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>47</v>
@@ -802,89 +812,78 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="22">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="22">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="22">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="22">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="22">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="22">
-        <v>2012</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
         <v>2</v>
       </c>
     </row>
@@ -895,11 +894,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -921,156 +918,154 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="16" customFormat="1" ht="15">
-      <c r="A2" s="22">
-        <v>2021</v>
+      <c r="A2" s="23">
+        <v>2019</v>
       </c>
       <c r="B2" s="24">
         <v>78</v>
       </c>
       <c r="C2" s="30">
+        <v>91</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="24">
+        <v>61</v>
+      </c>
+      <c r="C3" s="30">
+        <v>84</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="24">
+        <v>46</v>
+      </c>
+      <c r="C4" s="30">
         <v>77</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" ht="15">
-      <c r="A3" s="22">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="24">
-        <v>78</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="23">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="24">
+        <v>34</v>
+      </c>
+      <c r="C5" s="30">
         <v>67</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="22">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="24">
-        <v>61</v>
-      </c>
-      <c r="C4" s="30">
-        <v>84</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="22">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="24">
-        <v>46</v>
-      </c>
-      <c r="C5" s="30">
-        <v>77</v>
-      </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="22">
-        <v>2017</v>
+      <c r="A6" s="23">
+        <v>2015</v>
       </c>
       <c r="B6" s="24">
+        <v>25</v>
+      </c>
+      <c r="C6" s="30">
+        <v>59</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="23">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="24">
+        <v>18</v>
+      </c>
+      <c r="C7" s="30">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="23">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="24">
+        <v>12</v>
+      </c>
+      <c r="C8" s="30">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="23">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="24">
+        <v>8</v>
+      </c>
+      <c r="C9" s="30">
         <v>34</v>
       </c>
-      <c r="C6" s="30">
-        <v>67</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="22">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="24">
-        <v>25</v>
-      </c>
-      <c r="C7" s="30">
-        <v>59</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="22">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="24">
-        <v>18</v>
-      </c>
-      <c r="C8" s="30">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="22">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="24">
-        <v>12</v>
-      </c>
-      <c r="C9" s="30">
-        <v>41</v>
-      </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="22">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="24">
-        <v>8</v>
-      </c>
-      <c r="C10" s="30">
-        <v>34</v>
+      <c r="A10" s="23">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="31">
+        <v>27</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="22">
-        <v>2012</v>
+      <c r="A11" s="23">
+        <v>2010</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="31">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="22">
-        <v>2011</v>
+      <c r="A12" s="23">
+        <v>2009</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="22">
-        <v>2010</v>
+      <c r="A13" s="23">
+        <v>2008</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="22">
-        <v>2009</v>
+      <c r="A14" s="23">
+        <v>2007</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="22">
-        <v>2008</v>
+      <c r="A15" s="23">
+        <v>2006</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="31">
@@ -1079,8 +1074,8 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="22">
-        <v>2007</v>
+      <c r="A16" s="23">
+        <v>2005</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="31">
@@ -1089,8 +1084,8 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="22">
-        <v>2006</v>
+      <c r="A17" s="23">
+        <v>2004</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="31">
@@ -1098,36 +1093,29 @@
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="22">
-        <v>2005</v>
+    <row r="18" spans="1:4">
+      <c r="A18" s="23">
+        <v>2003</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="31">
         <v>12</v>
       </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="22">
-        <v>2004</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="31">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="6"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="19"/>
+    <row r="29" spans="1:4" ht="15">
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="15">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="B31" s="8"/>
@@ -1163,6 +1151,7 @@
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="6"/>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" ht="15">
@@ -1181,9 +1170,9 @@
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2">
       <c r="A47" s="6"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6"/>
@@ -1195,10 +1184,6 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1254,7 +1239,7 @@
         <v>92</v>
       </c>
       <c r="D2" s="25">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" s="25">
         <v>92</v>
@@ -1264,34 +1249,34 @@
       <c r="A3" s="23">
         <v>2020</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="26">
+        <v>71</v>
+      </c>
+      <c r="C3" s="26">
         <v>85</v>
       </c>
-      <c r="C3" s="25">
-        <v>92</v>
-      </c>
       <c r="D3" s="26">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26">
         <v>85</v>
-      </c>
-      <c r="E3" s="25">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="23">
         <v>2019</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
+        <v>57</v>
+      </c>
+      <c r="C4" s="27">
+        <v>80</v>
+      </c>
+      <c r="D4" s="27">
         <v>71</v>
       </c>
-      <c r="C4" s="26">
-        <v>85</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="E4" s="27">
         <v>80</v>
-      </c>
-      <c r="E4" s="26">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1299,16 +1284,16 @@
         <v>2018</v>
       </c>
       <c r="B5" s="27">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C5" s="27">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5" s="27">
+        <v>60</v>
+      </c>
+      <c r="E5" s="27">
         <v>71</v>
-      </c>
-      <c r="E5" s="27">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1316,16 +1301,16 @@
         <v>2017</v>
       </c>
       <c r="B6" s="27">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" s="27">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6" s="27">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E6" s="27">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1333,16 +1318,16 @@
         <v>2016</v>
       </c>
       <c r="B7" s="27">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" s="27">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" s="27">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E7" s="27">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1350,16 +1335,16 @@
         <v>2015</v>
       </c>
       <c r="B8" s="27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="27">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D8" s="27">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E8" s="27">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1367,16 +1352,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="27">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D9" s="27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" s="27">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1387,13 +1372,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="27">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" s="27">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" s="27">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1404,13 +1389,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="27">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="27">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1421,13 +1406,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="27">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="27">
         <v>12</v>
       </c>
       <c r="E12" s="27">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1438,13 +1423,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="27">
         <v>12</v>
       </c>
       <c r="E13" s="27">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1455,60 +1440,50 @@
         <v>11</v>
       </c>
       <c r="C14" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="27">
         <v>12</v>
       </c>
       <c r="E14" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23">
-        <v>2008</v>
-      </c>
-      <c r="B15" s="27">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27">
-        <v>12</v>
-      </c>
-      <c r="D15" s="27">
-        <v>12</v>
-      </c>
-      <c r="E15" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="7"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="7"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
+      <c r="A24" s="8"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="8"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="20"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -1516,41 +1491,41 @@
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="9"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="8"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15">
       <c r="A30" s="19"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="19"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="19"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1562,6 +1537,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="15">
       <c r="A34" s="8"/>
@@ -1645,14 +1621,14 @@
     </row>
     <row r="44" spans="1:12" ht="15">
       <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="15">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1666,6 +1642,9 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="6"/>
@@ -1673,10 +1652,6 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="6"/>
@@ -1743,20 +1718,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1767,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1788,79 +1756,79 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>2021</v>
       </c>
       <c r="B2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B5">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="22">
-        <v>2020</v>
-      </c>
-      <c r="B3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B6">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="22">
-        <v>2019</v>
-      </c>
-      <c r="B4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="22">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="22">
-        <v>2017</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>2015</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22">
+      <c r="A10" s="23">
         <v>2013</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>2012</v>
       </c>
       <c r="B11">
@@ -1868,20 +1836,18 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22">
+      <c r="A12" s="23">
         <v>2011</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1911,122 +1877,114 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="23">
         <v>2021</v>
       </c>
       <c r="B2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B5">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B6">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B6">
-        <v>66</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7" s="23">
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8" s="23">
         <v>2015</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="23">
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10" s="23">
         <v>2013</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="23">
         <v>2012</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12" s="23">
         <v>2011</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="23">
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="A14" s="23">
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="A15" s="23">
         <v>2008</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2036,18 +1994,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2268,18 +2226,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
